--- a/Unit_Test.xlsx
+++ b/Unit_Test.xlsx
@@ -248,9 +248,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>loguerase como usuario</t>
-  </si>
-  <si>
     <t>Loguea correctamente</t>
   </si>
   <si>
@@ -281,10 +278,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>cambia correctamente, mail, first_name y last_name</t>
-  </si>
-  <si>
     <t>No cambia datos, solo deja modificar mail, pero no first_name and last_name</t>
+  </si>
+  <si>
+    <t>loguearse como usuario</t>
+  </si>
+  <si>
+    <t>cambia correctamente mail, first_name y last_name</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,10 +1723,10 @@
         <v>73</v>
       </c>
       <c r="D31" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="61" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>75</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>22</v>
@@ -1740,13 +1740,13 @@
         <v>44765</v>
       </c>
       <c r="C32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="E32" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>22</v>
@@ -1760,13 +1760,13 @@
         <v>44765</v>
       </c>
       <c r="C33" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="E33" s="62" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>81</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>22</v>
@@ -1780,16 +1780,16 @@
         <v>44765</v>
       </c>
       <c r="C34" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="65" t="s">
+      <c r="E34" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="56" t="s">
         <v>83</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1800,13 +1800,13 @@
         <v>44765</v>
       </c>
       <c r="C35" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="55" t="s">
-        <v>83</v>
-      </c>
       <c r="E35" s="64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>22</v>
